--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48FE8B2-222F-4B7B-83D6-F8C9F1323F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73D8BB-4D94-4230-B2C3-3FCBFBC17717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>名前</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>結果</t>
+  </si>
+  <si>
+    <t>アセット名</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,26 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -208,26 +230,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -268,11 +271,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F101">
   <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名前" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="アセット名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="タイプ"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="アセットID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -286,9 +289,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名前"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="値"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名・ID" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名・ID" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -301,9 +304,9 @@
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名前"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="値"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名・ID" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="アセットID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="結果" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名・ID" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="アセットID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="結果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -313,10 +316,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="組織単位名・ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="アセットID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="組織単位名・ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="アセットID" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,19 +594,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -621,502 +624,502 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="3"/>
@@ -1143,17 +1146,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,601 +1176,601 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
@@ -1796,17 +1799,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,512 +1829,512 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
@@ -2358,15 +2361,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2380,480 +2383,480 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076FD9B-A1B8-4A8D-B225-C28677B10D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C4AC6-FC34-4EDE-A5B5-B61E4ED64C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>タイプ</t>
   </si>
@@ -112,7 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -231,17 +231,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -298,12 +287,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F101">
   <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="アセットID"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="アセット名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="タイプ"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -313,23 +302,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G102" totalsRowShown="0">
   <autoFilter ref="A1:G102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{FBE28F8B-F662-4318-9C4E-E65DF490FD40}" name="組織単位ID" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FBE28F8B-F662-4318-9C4E-E65DF490FD40}" name="組織単位ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="アセット名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="値"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
-  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{2C29C5DB-BBD3-4D10-BBF6-31DD8801067F}" name="組織単位ID" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:F101" totalsRowShown="0">
+  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="アセットID" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="アセット名"/>
@@ -1232,14 +1220,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1934,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1942,642 +1930,538 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="G101" s="2"/>
+      <c r="F101" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C4AC6-FC34-4EDE-A5B5-B61E4ED64C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC50F9-B239-4E6D-A9B3-EE9BCF69C8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2"/>
+      <c r="B2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2507,17 +2507,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC50F9-B239-4E6D-A9B3-EE9BCF69C8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA620124-DDBE-43DA-AA55-D984E0468758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>タイプ</t>
   </si>
@@ -112,7 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -242,17 +242,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -287,22 +276,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F101">
   <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="アセットID"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="アセット名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="タイプ"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G102" totalsRowShown="0">
-  <autoFilter ref="A1:G102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{FBE28F8B-F662-4318-9C4E-E65DF490FD40}" name="組織単位ID" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F102" totalsRowShown="0">
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="アセット名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="タイプ"/>
@@ -1158,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1166,749 +1154,644 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA620124-DDBE-43DA-AA55-D984E0468758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2328731-8BDD-442E-9D91-4B3D20829B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2390,25 +2390,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -2417,48 +2415,48 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2328731-8BDD-442E-9D91-4B3D20829B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B857EF9-A438-4E89-A0E9-BA2172357CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B857EF9-A438-4E89-A0E9-BA2172357CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D6063D-6ECF-4035-BDE2-AA790E749465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2390,23 +2390,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="1"/>
+      <c r="B2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -2415,17 +2414,17 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
+      <c r="B9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D6063D-6ECF-4035-BDE2-AA790E749465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E06A5-F87F-4398-99FF-83743CA84A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
+      <c r="B2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2390,77 +2390,81 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.35">

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E06A5-F87F-4398-99FF-83743CA84A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A725A5-4FA3-46D0-85B1-F82C0405D3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A725A5-4FA3-46D0-85B1-F82C0405D3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1221C6AD-8395-4240-B4A4-E8579058F408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,6 +2437,8 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -2453,7 +2455,6 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -2467,162 +2468,162 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1221C6AD-8395-4240-B4A4-E8579058F408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF05787-EDEA-4ADF-A789-3CD9BA086F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF05787-EDEA-4ADF-A789-3CD9BA086F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE8611-053C-4E71-AFEF-789BBAE662D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE8611-053C-4E71-AFEF-789BBAE662D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1E26D-6F81-4AB6-8E87-7AE7C4D7BD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1E26D-6F81-4AB6-8E87-7AE7C4D7BD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFCBCD-0586-4FCA-AAA6-95288987AD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
-    <sheet name="編集" sheetId="5" r:id="rId3"/>
-    <sheet name="削除" sheetId="2" r:id="rId4"/>
+    <sheet name="Credential型の作成" sheetId="6" r:id="rId3"/>
+    <sheet name="編集" sheetId="5" r:id="rId4"/>
+    <sheet name="Credential型の編集" sheetId="7" r:id="rId5"/>
+    <sheet name="削除" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>タイプ</t>
   </si>
@@ -57,6 +59,12 @@
   </si>
   <si>
     <t>アセット名</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>パスワード</t>
   </si>
 </sst>
 </file>
@@ -112,7 +120,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -220,6 +228,94 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -276,12 +372,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F101">
   <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="組織単位ID" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="アセットID"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="アセット名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="タイプ"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="値" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -291,33 +387,62 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F102" totalsRowShown="0">
   <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="18"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="アセット名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="値"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="アセットID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:F101" totalsRowShown="0">
-  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9717DAA5-2B4E-4BB2-B4E5-CF7BB14A54E8}" name="Table16" displayName="Table16" ref="A1:F102" totalsRowShown="0">
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="アセットID" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="アセット名"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="タイプ"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="値"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="結果" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E7DF820B-D800-4138-836F-FE1C22ADC8D0}" name="組織単位名" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{94047F63-5F99-48EE-A14F-AD09F3F0D6D1}" name="アセット名"/>
+    <tableColumn id="3" xr3:uid="{1F2CB9AA-4410-4912-9915-A55CAE5FF526}" name="ユーザー名" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8EE751E2-03B8-4BCB-AE06-E379F563A99F}" name="パスワード"/>
+    <tableColumn id="6" xr3:uid="{AC639182-1D30-41A0-BD03-473F0C0F4BB1}" name="アセットID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0701763C-7360-405F-8F1C-1F53D1D77307}" name="結果" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:E101" totalsRowShown="0">
+  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="アセットID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="アセット名"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="値"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="結果" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3272B0AF-08A3-4D58-B5B6-F01B44332ED6}" name="Table157" displayName="Table157" ref="A1:F101" totalsRowShown="0">
+  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="7" xr3:uid="{251D3833-63EB-4EBD-AE37-FF2D12A6CC39}" name="組織単位名" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{DA80FE62-60C0-4433-B46B-1F92B860B17B}" name="アセットID" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9B87418B-1A39-4E1B-B43A-0F8460FC13CC}" name="アセット名"/>
+    <tableColumn id="2" xr3:uid="{A84BA876-00E9-421A-80AA-9AA68A9B3FA1}" name="ユーザー名" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B580B742-1C0B-4522-930D-2966B712431F}" name="パスワード"/>
+    <tableColumn id="5" xr3:uid="{14360842-54CB-4C7A-9EAE-B55E316A80EF}" name="結果" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E101" totalsRowShown="0">
   <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
@@ -1792,7 +1917,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
-      <formula1>"Text,Bool,Integer,Credential"</formula1>
+      <formula1>"Text,Bool,Integer"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,7 +1929,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A16F479-EDA5-441F-9025-B8AACE684494}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="E101" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED50216-0469-4D14-A2E0-B2E8C3455F2D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1815,9 +3136,9 @@
   <cols>
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1832,47 +3153,40 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
       <c r="B2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
       <c r="B4"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
       <c r="B7"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
       <c r="B8"/>
       <c r="F8" s="2"/>
     </row>
@@ -2342,12 +3656,6 @@
       <c r="F101" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
-      <formula1>"Text,Bool,Integer,Credential"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2356,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:E101"/>
   <sheetViews>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFCBCD-0586-4FCA-AAA6-95288987AD47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37849D-5F9F-4EF7-B2EC-45C6039439D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,6 +1992,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
     </row>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37849D-5F9F-4EF7-B2EC-45C6039439D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6F6FEE-6B15-44BE-937F-8264C4DBDE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6F6FEE-6B15-44BE-937F-8264C4DBDE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F790C-00FC-45CD-B163-CB2CC1CE3FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Config/JA/アセット.xlsx
+++ b/Config/JA/アセット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F790C-00FC-45CD-B163-CB2CC1CE3FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86B40A3-A511-45AE-A4CA-3A157DA072BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
